--- a/StadiumLocations.xlsx
+++ b/StadiumLocations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/DS202/DS202_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4B8947E-16DF-A645-810B-D91205259611}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E230AB-58A1-1947-A049-EAFFB30BA766}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5B53E3D1-0B89-C041-81B9-D3255F514815}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{5B53E3D1-0B89-C041-81B9-D3255F514815}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>San Francisco Giants</t>
   </si>
@@ -313,13 +313,16 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>AVG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -348,6 +351,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -370,11 +381,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -690,15 +702,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B608E15-3559-AE4F-9336-17935B045AE2}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -714,8 +726,11 @@
       <c r="E1" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -731,8 +746,11 @@
       <c r="E2" s="2">
         <v>-117.883194</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,8 +766,11 @@
       <c r="E3" s="2">
         <v>-122.389595</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -765,8 +786,11 @@
       <c r="E4" s="2">
         <v>-104.994198</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -782,8 +806,11 @@
       <c r="E5" s="2">
         <v>-90.193890999999994</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -799,8 +826,11 @@
       <c r="E6" s="2">
         <v>-112.066721</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -816,8 +846,11 @@
       <c r="E7" s="2">
         <v>-118.240646</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -833,8 +866,11 @@
       <c r="E8" s="2">
         <v>-73.846042999999995</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -850,8 +886,11 @@
       <c r="E9" s="2">
         <v>-75.166589000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -867,8 +906,11 @@
       <c r="E10" s="2">
         <v>-83.049505999999994</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -884,8 +926,11 @@
       <c r="E11" s="2">
         <v>-71.096960999999993</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -901,8 +946,11 @@
       <c r="E12" s="2">
         <v>-97.082453999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>0.27900000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -918,8 +966,11 @@
       <c r="E13" s="2">
         <v>-84.508157999999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -935,8 +986,11 @@
       <c r="E14" s="2">
         <v>-94.481115000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -952,8 +1006,11 @@
       <c r="E15" s="2">
         <v>-80.220304999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -969,8 +1026,11 @@
       <c r="E16" s="2">
         <v>-87.971164999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -986,8 +1046,11 @@
       <c r="E17" s="2">
         <v>-95.354823999999994</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -1003,8 +1066,11 @@
       <c r="E18" s="2">
         <v>-77.007457000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -1020,8 +1086,11 @@
       <c r="E19" s="2">
         <v>-122.200523</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1037,8 +1106,11 @@
       <c r="E20" s="2">
         <v>-76.621617999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -1054,8 +1126,11 @@
       <c r="E21" s="2">
         <v>-117.15709699999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -1071,8 +1146,11 @@
       <c r="E22" s="2">
         <v>-80.006840999999994</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
@@ -1088,8 +1166,11 @@
       <c r="E23" s="2">
         <v>-81.685237999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -1105,8 +1186,11 @@
       <c r="E24" s="2">
         <v>-79.389674999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -1122,8 +1206,11 @@
       <c r="E25" s="2">
         <v>-122.332283</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
@@ -1139,8 +1226,11 @@
       <c r="E26" s="2">
         <v>-93.277347000000006</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
@@ -1156,8 +1246,11 @@
       <c r="E27" s="2">
         <v>-82.653464999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
@@ -1173,8 +1266,11 @@
       <c r="E28" s="2">
         <v>-84.389995999999996</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
@@ -1190,8 +1286,11 @@
       <c r="E29" s="2">
         <v>-87.633539999999996</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
@@ -1207,8 +1306,11 @@
       <c r="E30" s="2">
         <v>-87.655887000000007</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
@@ -1223,6 +1325,9 @@
       </c>
       <c r="E31" s="2">
         <v>-73.927734999999998</v>
+      </c>
+      <c r="F31">
+        <v>0.28399999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/StadiumLocations.xlsx
+++ b/StadiumLocations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/DS202/DS202_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciahauglie/DS202/DS202_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4B8947E-16DF-A645-810B-D91205259611}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D25296C-D46D-7A46-8DF7-644C5C7C3CFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5B53E3D1-0B89-C041-81B9-D3255F514815}"/>
+    <workbookView xWindow="11520" yWindow="460" windowWidth="17280" windowHeight="16000" xr2:uid="{5B53E3D1-0B89-C041-81B9-D3255F514815}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
   <si>
     <t>San Francisco Giants</t>
   </si>
@@ -313,6 +313,99 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>BAL</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>CHC</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CWS</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>LAA</t>
+  </si>
+  <si>
+    <t>LAD</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>NYM</t>
+  </si>
+  <si>
+    <t>NYY</t>
+  </si>
+  <si>
+    <t>OAK</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>PIT</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>STL</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>WSH</t>
   </si>
 </sst>
 </file>
@@ -690,544 +783,641 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B608E15-3559-AE4F-9336-17935B045AE2}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>33.799925000000002</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>-117.883194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>37.778472999999998</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>-122.389595</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>39.755890999999998</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>-104.994198</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>38.622317000000002</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>-90.193890999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>33.445526000000001</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>-112.066721</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>34.072724000000001</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>-118.240646</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>40.756337000000002</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>-73.846042999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>39.905546999999999</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>-75.166589000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>42.339227000000001</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>-83.049505999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>42.346618999999997</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>-71.096960999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>32.751147000000003</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>-97.082453999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>39.097935</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>-84.508157999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>39.051098000000003</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>-94.481115000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>25.778655000000001</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>-80.220304999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>43.027982000000002</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>-87.971164999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>29.756965000000001</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>-95.354823999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>38.873010000000001</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>-77.007457000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>37.751604999999998</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>-122.200523</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>39.283963999999997</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>-76.621617999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>32.707709999999999</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>-117.15709699999999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>40.447307000000002</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>-80.006840999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>41.496192000000001</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>-81.685237999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>43.641111000000002</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>-79.389674999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>47.591358</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <v>-122.332283</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>44.981712999999999</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>-93.277347000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>27.768160000000002</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>-82.653464999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>33.734805000000001</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>-84.389995999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>41.829908000000003</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <v>-87.633539999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>41.947856000000002</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>-87.655887000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="2">
         <v>40.829326999999999</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <v>-73.927734999999998</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" display="http://o.co/" xr:uid="{80116D3F-6106-394D-9A59-69EBA9E9AA24}"/>
+    <hyperlink ref="C19" r:id="rId1" display="http://o.co/" xr:uid="{80116D3F-6106-394D-9A59-69EBA9E9AA24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StadiumLocations.xlsx
+++ b/StadiumLocations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/DS202/DS202_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E230AB-58A1-1947-A049-EAFFB30BA766}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D267378F-CABD-7244-ACD4-DE45FD07BD2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{5B53E3D1-0B89-C041-81B9-D3255F514815}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5B53E3D1-0B89-C041-81B9-D3255F514815}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -705,7 +705,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/StadiumLocations.xlsx
+++ b/StadiumLocations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/DS202/DS202_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D267378F-CABD-7244-ACD4-DE45FD07BD2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3658696C-68BE-684F-BCC0-B7D730B1BB5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5B53E3D1-0B89-C041-81B9-D3255F514815}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>San Francisco Giants</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>Longitude</t>
-  </si>
-  <si>
-    <t>AVG</t>
   </si>
 </sst>
 </file>
@@ -705,7 +702,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -726,9 +723,7 @@
       <c r="E1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -746,9 +741,6 @@
       <c r="E2" s="2">
         <v>-117.883194</v>
       </c>
-      <c r="F2">
-        <v>0.28499999999999998</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -766,9 +758,6 @@
       <c r="E3" s="2">
         <v>-122.389595</v>
       </c>
-      <c r="F3">
-        <v>0.28499999999999998</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -786,9 +775,6 @@
       <c r="E4" s="2">
         <v>-104.994198</v>
       </c>
-      <c r="F4">
-        <v>0.29499999999999998</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -806,9 +792,6 @@
       <c r="E5" s="2">
         <v>-90.193890999999994</v>
       </c>
-      <c r="F5">
-        <v>0.29699999999999999</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -826,9 +809,6 @@
       <c r="E6" s="2">
         <v>-112.066721</v>
       </c>
-      <c r="F6">
-        <v>0.29099999999999998</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -846,9 +826,6 @@
       <c r="E7" s="2">
         <v>-118.240646</v>
       </c>
-      <c r="F7">
-        <v>0.28799999999999998</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -866,9 +843,6 @@
       <c r="E8" s="2">
         <v>-73.846042999999995</v>
       </c>
-      <c r="F8">
-        <v>0.29099999999999998</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -886,9 +860,6 @@
       <c r="E9" s="2">
         <v>-75.166589000000002</v>
       </c>
-      <c r="F9">
-        <v>0.28100000000000003</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -906,9 +877,6 @@
       <c r="E10" s="2">
         <v>-83.049505999999994</v>
       </c>
-      <c r="F10">
-        <v>0.29399999999999998</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -926,9 +894,6 @@
       <c r="E11" s="2">
         <v>-71.096960999999993</v>
       </c>
-      <c r="F11">
-        <v>0.29199999999999998</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -946,9 +911,6 @@
       <c r="E12" s="2">
         <v>-97.082453999999998</v>
       </c>
-      <c r="F12">
-        <v>0.27900000000000003</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -966,9 +928,6 @@
       <c r="E13" s="2">
         <v>-84.508157999999995</v>
       </c>
-      <c r="F13">
-        <v>0.28699999999999998</v>
-      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -986,9 +945,6 @@
       <c r="E14" s="2">
         <v>-94.481115000000003</v>
       </c>
-      <c r="F14">
-        <v>0.28299999999999997</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -1006,9 +962,6 @@
       <c r="E15" s="2">
         <v>-80.220304999999996</v>
       </c>
-      <c r="F15">
-        <v>0.28799999999999998</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1026,11 +979,8 @@
       <c r="E16" s="2">
         <v>-87.971164999999999</v>
       </c>
-      <c r="F16">
-        <v>0.29099999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -1046,11 +996,8 @@
       <c r="E17" s="2">
         <v>-95.354823999999994</v>
       </c>
-      <c r="F17">
-        <v>0.29299999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -1066,11 +1013,8 @@
       <c r="E18" s="2">
         <v>-77.007457000000002</v>
       </c>
-      <c r="F18">
-        <v>0.29599999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -1086,11 +1030,8 @@
       <c r="E19" s="2">
         <v>-122.200523</v>
       </c>
-      <c r="F19">
-        <v>0.27700000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1106,11 +1047,8 @@
       <c r="E20" s="2">
         <v>-76.621617999999998</v>
       </c>
-      <c r="F20">
-        <v>0.28199999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -1126,11 +1064,8 @@
       <c r="E21" s="2">
         <v>-117.15709699999999</v>
       </c>
-      <c r="F21">
-        <v>0.27400000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -1146,11 +1081,8 @@
       <c r="E22" s="2">
         <v>-80.006840999999994</v>
       </c>
-      <c r="F22">
-        <v>0.28100000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
@@ -1166,11 +1098,8 @@
       <c r="E23" s="2">
         <v>-81.685237999999998</v>
       </c>
-      <c r="F23">
-        <v>0.28699999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -1186,11 +1115,8 @@
       <c r="E24" s="2">
         <v>-79.389674999999997</v>
       </c>
-      <c r="F24">
-        <v>0.28199999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -1206,11 +1132,8 @@
       <c r="E25" s="2">
         <v>-122.332283</v>
       </c>
-      <c r="F25">
-        <v>0.28100000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
@@ -1226,11 +1149,8 @@
       <c r="E26" s="2">
         <v>-93.277347000000006</v>
       </c>
-      <c r="F26">
-        <v>0.28499999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
@@ -1246,11 +1166,8 @@
       <c r="E27" s="2">
         <v>-82.653464999999997</v>
       </c>
-      <c r="F27">
-        <v>0.28100000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
@@ -1266,11 +1183,8 @@
       <c r="E28" s="2">
         <v>-84.389995999999996</v>
       </c>
-      <c r="F28">
-        <v>0.28499999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
@@ -1286,11 +1200,8 @@
       <c r="E29" s="2">
         <v>-87.633539999999996</v>
       </c>
-      <c r="F29">
-        <v>0.28799999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
@@ -1306,11 +1217,8 @@
       <c r="E30" s="2">
         <v>-87.655887000000007</v>
       </c>
-      <c r="F30">
-        <v>0.29099999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
@@ -1325,9 +1233,6 @@
       </c>
       <c r="E31" s="2">
         <v>-73.927734999999998</v>
-      </c>
-      <c r="F31">
-        <v>0.28399999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/StadiumLocations.xlsx
+++ b/StadiumLocations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/DS202/DS202_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3658696C-68BE-684F-BCC0-B7D730B1BB5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8014A8BF-6054-9845-BBBE-55347759289F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5B53E3D1-0B89-C041-81B9-D3255F514815}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>San Francisco Giants</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>AVG</t>
   </si>
 </sst>
 </file>
@@ -702,7 +705,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -723,7 +726,9 @@
       <c r="E1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -741,6 +746,9 @@
       <c r="E2" s="2">
         <v>-117.883194</v>
       </c>
+      <c r="F2">
+        <v>0.28499999999999998</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -758,6 +766,9 @@
       <c r="E3" s="2">
         <v>-122.389595</v>
       </c>
+      <c r="F3">
+        <v>0.28499999999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -775,6 +786,9 @@
       <c r="E4" s="2">
         <v>-104.994198</v>
       </c>
+      <c r="F4">
+        <v>0.29499999999999998</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -792,6 +806,9 @@
       <c r="E5" s="2">
         <v>-90.193890999999994</v>
       </c>
+      <c r="F5">
+        <v>0.29699999999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -809,6 +826,9 @@
       <c r="E6" s="2">
         <v>-112.066721</v>
       </c>
+      <c r="F6">
+        <v>0.29099999999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -826,6 +846,9 @@
       <c r="E7" s="2">
         <v>-118.240646</v>
       </c>
+      <c r="F7">
+        <v>0.28799999999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -843,6 +866,9 @@
       <c r="E8" s="2">
         <v>-73.846042999999995</v>
       </c>
+      <c r="F8">
+        <v>0.29099999999999998</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -860,6 +886,9 @@
       <c r="E9" s="2">
         <v>-75.166589000000002</v>
       </c>
+      <c r="F9">
+        <v>0.28100000000000003</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -877,6 +906,9 @@
       <c r="E10" s="2">
         <v>-83.049505999999994</v>
       </c>
+      <c r="F10">
+        <v>0.29399999999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -894,6 +926,9 @@
       <c r="E11" s="2">
         <v>-71.096960999999993</v>
       </c>
+      <c r="F11">
+        <v>0.29199999999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -911,6 +946,9 @@
       <c r="E12" s="2">
         <v>-97.082453999999998</v>
       </c>
+      <c r="F12">
+        <v>0.27900000000000003</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -928,6 +966,9 @@
       <c r="E13" s="2">
         <v>-84.508157999999995</v>
       </c>
+      <c r="F13">
+        <v>0.28699999999999998</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -945,6 +986,9 @@
       <c r="E14" s="2">
         <v>-94.481115000000003</v>
       </c>
+      <c r="F14">
+        <v>0.28299999999999997</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -962,6 +1006,9 @@
       <c r="E15" s="2">
         <v>-80.220304999999996</v>
       </c>
+      <c r="F15">
+        <v>0.28799999999999998</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -979,8 +1026,11 @@
       <c r="E16" s="2">
         <v>-87.971164999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -996,8 +1046,11 @@
       <c r="E17" s="2">
         <v>-95.354823999999994</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -1013,8 +1066,11 @@
       <c r="E18" s="2">
         <v>-77.007457000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -1030,8 +1086,11 @@
       <c r="E19" s="2">
         <v>-122.200523</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1047,8 +1106,11 @@
       <c r="E20" s="2">
         <v>-76.621617999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -1064,8 +1126,11 @@
       <c r="E21" s="2">
         <v>-117.15709699999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -1081,8 +1146,11 @@
       <c r="E22" s="2">
         <v>-80.006840999999994</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
@@ -1098,8 +1166,11 @@
       <c r="E23" s="2">
         <v>-81.685237999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -1115,8 +1186,11 @@
       <c r="E24" s="2">
         <v>-79.389674999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -1132,8 +1206,11 @@
       <c r="E25" s="2">
         <v>-122.332283</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
@@ -1149,8 +1226,11 @@
       <c r="E26" s="2">
         <v>-93.277347000000006</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
@@ -1166,8 +1246,11 @@
       <c r="E27" s="2">
         <v>-82.653464999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
@@ -1183,8 +1266,11 @@
       <c r="E28" s="2">
         <v>-84.389995999999996</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
@@ -1200,8 +1286,11 @@
       <c r="E29" s="2">
         <v>-87.633539999999996</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
@@ -1217,8 +1306,11 @@
       <c r="E30" s="2">
         <v>-87.655887000000007</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
@@ -1233,6 +1325,9 @@
       </c>
       <c r="E31" s="2">
         <v>-73.927734999999998</v>
+      </c>
+      <c r="F31">
+        <v>0.28399999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/StadiumLocations.xlsx
+++ b/StadiumLocations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/DS202/DS202_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8014A8BF-6054-9845-BBBE-55347759289F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFB0EC1-8AEB-DB4D-ABD0-D0FFDC6B715A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5B53E3D1-0B89-C041-81B9-D3255F514815}"/>
   </bookViews>
@@ -705,7 +705,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/StadiumLocations.xlsx
+++ b/StadiumLocations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/DS202/DS202_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciahauglie/DS202/DS202_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8014A8BF-6054-9845-BBBE-55347759289F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A1114E-36A6-5743-81AE-34678F76DDC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5B53E3D1-0B89-C041-81B9-D3255F514815}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{5B53E3D1-0B89-C041-81B9-D3255F514815}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
   <si>
     <t>San Francisco Giants</t>
   </si>
@@ -316,13 +316,106 @@
   </si>
   <si>
     <t>AVG</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>LAA</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>STL</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>LAD</t>
+  </si>
+  <si>
+    <t>NYM</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>WSH</t>
+  </si>
+  <si>
+    <t>OAK</t>
+  </si>
+  <si>
+    <t>BAL</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>PIT</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>CWS</t>
+  </si>
+  <si>
+    <t>CHC</t>
+  </si>
+  <si>
+    <t>NYY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -359,6 +452,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -381,12 +481,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -702,637 +803,733 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B608E15-3559-AE4F-9336-17935B045AE2}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>33.799925000000002</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>-117.883194</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>37.778472999999998</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>-122.389595</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>39.755890999999998</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>-104.994198</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>38.622317000000002</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>-90.193890999999994</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>33.445526000000001</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>-112.066721</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>34.072724000000001</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>-118.240646</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>40.756337000000002</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>-73.846042999999995</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>39.905546999999999</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>-75.166589000000002</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>42.339227000000001</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>-83.049505999999994</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>42.346618999999997</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>-71.096960999999993</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>32.751147000000003</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>-97.082453999999998</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>39.097935</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>-84.508157999999995</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>39.051098000000003</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>-94.481115000000003</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>25.778655000000001</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>-80.220304999999996</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>43.027982000000002</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>-87.971164999999999</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>29.756965000000001</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>-95.354823999999994</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.29299999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>38.873010000000001</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>-77.007457000000002</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>37.751604999999998</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>-122.200523</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>39.283963999999997</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>-76.621617999999998</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>32.707709999999999</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>-117.15709699999999</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>40.447307000000002</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>-80.006840999999994</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>41.496192000000001</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>-81.685237999999998</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>43.641111000000002</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>-79.389674999999997</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>47.591358</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <v>-122.332283</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>44.981712999999999</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>-93.277347000000006</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>27.768160000000002</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>-82.653464999999997</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>33.734805000000001</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>-84.389995999999996</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>41.829908000000003</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <v>-87.633539999999996</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>41.947856000000002</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>-87.655887000000007</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="2">
         <v>40.829326999999999</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <v>-73.927734999999998</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.28399999999999997</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" display="http://o.co/" xr:uid="{80116D3F-6106-394D-9A59-69EBA9E9AA24}"/>
+    <hyperlink ref="C19" r:id="rId1" display="http://o.co/" xr:uid="{80116D3F-6106-394D-9A59-69EBA9E9AA24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StadiumLocations.xlsx
+++ b/StadiumLocations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/DS202/DS202_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFB0EC1-8AEB-DB4D-ABD0-D0FFDC6B715A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE767650-F370-354F-9E1B-194C44FF6539}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5B53E3D1-0B89-C041-81B9-D3255F514815}"/>
   </bookViews>
@@ -705,7 +705,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/StadiumLocations.xlsx
+++ b/StadiumLocations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/DS202/DS202_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciahauglie/DS202/DS202_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE767650-F370-354F-9E1B-194C44FF6539}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67B0290-F5A7-4544-B863-FC0792AA2D38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5B53E3D1-0B89-C041-81B9-D3255F514815}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{5B53E3D1-0B89-C041-81B9-D3255F514815}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
   <si>
     <t>San Francisco Giants</t>
   </si>
@@ -316,13 +316,106 @@
   </si>
   <si>
     <t>AVG</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>LAA</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>STL</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>LAD</t>
+  </si>
+  <si>
+    <t>NYM</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>WSH</t>
+  </si>
+  <si>
+    <t>OAK</t>
+  </si>
+  <si>
+    <t>BAL</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>PIT</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>CWS</t>
+  </si>
+  <si>
+    <t>CHC</t>
+  </si>
+  <si>
+    <t>NYY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -359,6 +452,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -381,12 +481,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -702,637 +803,733 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B608E15-3559-AE4F-9336-17935B045AE2}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B1" sqref="B1:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>33.799925000000002</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>-117.883194</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>37.778472999999998</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>-122.389595</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>39.755890999999998</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>-104.994198</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>38.622317000000002</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>-90.193890999999994</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>33.445526000000001</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>-112.066721</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>34.072724000000001</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>-118.240646</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>40.756337000000002</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>-73.846042999999995</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>39.905546999999999</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>-75.166589000000002</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>42.339227000000001</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>-83.049505999999994</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>42.346618999999997</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>-71.096960999999993</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>32.751147000000003</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>-97.082453999999998</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>39.097935</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>-84.508157999999995</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>39.051098000000003</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>-94.481115000000003</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>25.778655000000001</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>-80.220304999999996</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>43.027982000000002</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>-87.971164999999999</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>29.756965000000001</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>-95.354823999999994</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.29299999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>38.873010000000001</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>-77.007457000000002</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>37.751604999999998</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>-122.200523</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>39.283963999999997</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>-76.621617999999998</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>32.707709999999999</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>-117.15709699999999</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>40.447307000000002</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>-80.006840999999994</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>41.496192000000001</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>-81.685237999999998</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>43.641111000000002</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>-79.389674999999997</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>47.591358</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <v>-122.332283</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>44.981712999999999</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>-93.277347000000006</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>27.768160000000002</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>-82.653464999999997</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>33.734805000000001</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>-84.389995999999996</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>41.829908000000003</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <v>-87.633539999999996</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>41.947856000000002</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>-87.655887000000007</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="2">
         <v>40.829326999999999</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <v>-73.927734999999998</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.28399999999999997</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" display="http://o.co/" xr:uid="{80116D3F-6106-394D-9A59-69EBA9E9AA24}"/>
+    <hyperlink ref="C19" r:id="rId1" display="http://o.co/" xr:uid="{80116D3F-6106-394D-9A59-69EBA9E9AA24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StadiumLocations.xlsx
+++ b/StadiumLocations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciahauglie/DS202/DS202_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/DS202/DS202_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67B0290-F5A7-4544-B863-FC0792AA2D38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCE8648-6345-024E-B1A0-9AA5AC16D305}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{5B53E3D1-0B89-C041-81B9-D3255F514815}"/>
   </bookViews>
@@ -806,7 +806,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B31"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/StadiumLocations.xlsx
+++ b/StadiumLocations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/DS202/DS202_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCE8648-6345-024E-B1A0-9AA5AC16D305}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E088C21-7B36-FF4B-80E6-2EE2EAD1649C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{5B53E3D1-0B89-C041-81B9-D3255F514815}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{5B53E3D1-0B89-C041-81B9-D3255F514815}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="157">
   <si>
     <t>San Francisco Giants</t>
   </si>
@@ -409,6 +409,99 @@
   </si>
   <si>
     <t>NYY</t>
+  </si>
+  <si>
+    <t>Angels</t>
+  </si>
+  <si>
+    <t>Giants</t>
+  </si>
+  <si>
+    <t>ABR.</t>
+  </si>
+  <si>
+    <t>Rockies</t>
+  </si>
+  <si>
+    <t>Cardinals</t>
+  </si>
+  <si>
+    <t>Dodgers</t>
+  </si>
+  <si>
+    <t>Diamondbacks</t>
+  </si>
+  <si>
+    <t>Mets</t>
+  </si>
+  <si>
+    <t>Phillies</t>
+  </si>
+  <si>
+    <t>Tigers</t>
+  </si>
+  <si>
+    <t>Red Sox</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Reds</t>
+  </si>
+  <si>
+    <t>Royals</t>
+  </si>
+  <si>
+    <t>Marlins</t>
+  </si>
+  <si>
+    <t>Brewers</t>
+  </si>
+  <si>
+    <t>Astros</t>
+  </si>
+  <si>
+    <t>Nationals</t>
+  </si>
+  <si>
+    <t>Athletics</t>
+  </si>
+  <si>
+    <t>Orioles</t>
+  </si>
+  <si>
+    <t>Padres</t>
+  </si>
+  <si>
+    <t>Pirates</t>
+  </si>
+  <si>
+    <t>Indians</t>
+  </si>
+  <si>
+    <t>Blue Jays</t>
+  </si>
+  <si>
+    <t>Mariners</t>
+  </si>
+  <si>
+    <t>Twins</t>
+  </si>
+  <si>
+    <t>Rays</t>
+  </si>
+  <si>
+    <t>Braves</t>
+  </si>
+  <si>
+    <t>Cubs</t>
+  </si>
+  <si>
+    <t>Yankees</t>
+  </si>
+  <si>
+    <t>White Sox</t>
   </si>
 </sst>
 </file>
@@ -803,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B608E15-3559-AE4F-9336-17935B045AE2}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,7 +907,7 @@
     <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -836,8 +929,11 @@
       <c r="G1" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -859,8 +955,11 @@
       <c r="G2">
         <v>0.28499999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,8 +981,11 @@
       <c r="G3">
         <v>0.28499999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -905,8 +1007,11 @@
       <c r="G4">
         <v>0.29499999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -928,8 +1033,11 @@
       <c r="G5">
         <v>0.29699999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,8 +1059,11 @@
       <c r="G6">
         <v>0.29099999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -974,8 +1085,11 @@
       <c r="G7">
         <v>0.28799999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -997,8 +1111,11 @@
       <c r="G8">
         <v>0.29099999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1020,8 +1137,11 @@
       <c r="G9">
         <v>0.28100000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1043,8 +1163,11 @@
       <c r="G10">
         <v>0.29399999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1066,8 +1189,11 @@
       <c r="G11">
         <v>0.29199999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1089,8 +1215,11 @@
       <c r="G12">
         <v>0.27900000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1112,8 +1241,11 @@
       <c r="G13">
         <v>0.28699999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1135,8 +1267,11 @@
       <c r="G14">
         <v>0.28299999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -1158,8 +1293,11 @@
       <c r="G15">
         <v>0.28799999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1181,8 +1319,11 @@
       <c r="G16">
         <v>0.29099999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -1204,8 +1345,11 @@
       <c r="G17">
         <v>0.29299999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -1227,8 +1371,11 @@
       <c r="G18">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -1250,8 +1397,11 @@
       <c r="G19">
         <v>0.27700000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1273,8 +1423,11 @@
       <c r="G20">
         <v>0.28199999999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -1296,8 +1449,11 @@
       <c r="G21">
         <v>0.27400000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -1319,8 +1475,11 @@
       <c r="G22">
         <v>0.28100000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
@@ -1342,8 +1501,11 @@
       <c r="G23">
         <v>0.28699999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -1365,8 +1527,11 @@
       <c r="G24">
         <v>0.28199999999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -1388,8 +1553,11 @@
       <c r="G25">
         <v>0.28100000000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
@@ -1411,8 +1579,11 @@
       <c r="G26">
         <v>0.28499999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
@@ -1434,8 +1605,11 @@
       <c r="G27">
         <v>0.28100000000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
@@ -1457,8 +1631,11 @@
       <c r="G28">
         <v>0.28499999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
@@ -1480,8 +1657,11 @@
       <c r="G29">
         <v>0.28799999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
@@ -1503,8 +1683,11 @@
       <c r="G30">
         <v>0.29099999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
@@ -1525,6 +1708,9 @@
       </c>
       <c r="G31">
         <v>0.28399999999999997</v>
+      </c>
+      <c r="H31" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
